--- a/datasets/well3.xlsx
+++ b/datasets/well3.xlsx
@@ -1,23 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my documents\dars\siri\Production\05. Esfand Field (SIE)\WPE1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliyu\Documents\Machine Learning\Work\back-allocation-using-machine-learning\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_2C5A49C39624F929BE75AE65422BE7528420CB96" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3A6272-F549-49A6-AD8E-EA368BB2B6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="300" windowWidth="10650" windowHeight="6585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full History" sheetId="3" r:id="rId1"/>
     <sheet name="1388" sheetId="1" r:id="rId2"/>
     <sheet name="1389" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -4289,6 +4302,93 @@
     <xf numFmtId="1" fontId="2" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
@@ -4343,103 +4443,16 @@
     <xf numFmtId="0" fontId="23" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -44113,9 +44126,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -44153,9 +44166,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -44188,9 +44201,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -44223,9 +44253,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -44402,8 +44449,8 @@
   <dimension ref="A1:AC236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:M1"/>
+      <pane ySplit="3" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4:B181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -44432,38 +44479,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="39.75" customHeight="1">
-      <c r="A1" s="116"/>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="118"/>
+      <c r="A1" s="76"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="78"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="120" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="121"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="81"/>
     </row>
     <row r="3" spans="1:13" s="31" customFormat="1" ht="36" customHeight="1">
       <c r="A3" s="21" t="s">
@@ -44510,7 +44557,9 @@
       <c r="A4" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="32"/>
+      <c r="B4" s="32">
+        <v>36179</v>
+      </c>
       <c r="C4" s="38">
         <v>44</v>
       </c>
@@ -44547,7 +44596,9 @@
       <c r="A5" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="37"/>
+      <c r="B5" s="37">
+        <v>36180</v>
+      </c>
       <c r="C5" s="38">
         <v>52</v>
       </c>
@@ -44587,7 +44638,9 @@
       <c r="A6" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="37"/>
+      <c r="B6" s="37">
+        <v>36181</v>
+      </c>
       <c r="C6" s="38">
         <v>52</v>
       </c>
@@ -44627,7 +44680,9 @@
       <c r="A7" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="37"/>
+      <c r="B7" s="37">
+        <v>36182</v>
+      </c>
       <c r="C7" s="38">
         <v>52</v>
       </c>
@@ -44667,7 +44722,9 @@
       <c r="A8" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="37"/>
+      <c r="B8" s="37">
+        <v>36185</v>
+      </c>
       <c r="C8" s="38">
         <v>52</v>
       </c>
@@ -44707,7 +44764,9 @@
       <c r="A9" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="37"/>
+      <c r="B9" s="37">
+        <v>36186</v>
+      </c>
       <c r="C9" s="38">
         <v>64</v>
       </c>
@@ -44747,7 +44806,9 @@
       <c r="A10" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="37"/>
+      <c r="B10" s="37">
+        <v>36187</v>
+      </c>
       <c r="C10" s="38">
         <v>64</v>
       </c>
@@ -44787,7 +44848,9 @@
       <c r="A11" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="37"/>
+      <c r="B11" s="37">
+        <v>36188</v>
+      </c>
       <c r="C11" s="38">
         <v>68</v>
       </c>
@@ -44827,7 +44890,9 @@
       <c r="A12" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="37"/>
+      <c r="B12" s="37">
+        <v>36191</v>
+      </c>
       <c r="C12" s="38">
         <v>64</v>
       </c>
@@ -44867,7 +44932,9 @@
       <c r="A13" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="37"/>
+      <c r="B13" s="37">
+        <v>36193</v>
+      </c>
       <c r="C13" s="38">
         <v>40</v>
       </c>
@@ -44907,7 +44974,9 @@
       <c r="A14" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="37"/>
+      <c r="B14" s="37">
+        <v>36194</v>
+      </c>
       <c r="C14" s="38">
         <v>55</v>
       </c>
@@ -44947,7 +45016,9 @@
       <c r="A15" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="37"/>
+      <c r="B15" s="37">
+        <v>36197</v>
+      </c>
       <c r="C15" s="38">
         <v>55</v>
       </c>
@@ -44987,7 +45058,9 @@
       <c r="A16" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="37"/>
+      <c r="B16" s="37">
+        <v>36199</v>
+      </c>
       <c r="C16" s="38">
         <v>76</v>
       </c>
@@ -45027,7 +45100,9 @@
       <c r="A17" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="37"/>
+      <c r="B17" s="37">
+        <v>36201</v>
+      </c>
       <c r="C17" s="38">
         <v>76</v>
       </c>
@@ -45067,7 +45142,9 @@
       <c r="A18" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="37"/>
+      <c r="B18" s="37">
+        <v>36207</v>
+      </c>
       <c r="C18" s="38">
         <v>76</v>
       </c>
@@ -45107,7 +45184,9 @@
       <c r="A19" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="37"/>
+      <c r="B19" s="37">
+        <v>36208</v>
+      </c>
       <c r="C19" s="38">
         <v>76</v>
       </c>
@@ -45147,7 +45226,9 @@
       <c r="A20" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="37"/>
+      <c r="B20" s="37">
+        <v>36209</v>
+      </c>
       <c r="C20" s="38">
         <v>76</v>
       </c>
@@ -45187,7 +45268,9 @@
       <c r="A21" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="37"/>
+      <c r="B21" s="37">
+        <v>36211</v>
+      </c>
       <c r="C21" s="38">
         <v>70</v>
       </c>
@@ -45227,7 +45310,9 @@
       <c r="A22" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="37"/>
+      <c r="B22" s="37">
+        <v>36213</v>
+      </c>
       <c r="C22" s="38">
         <v>70</v>
       </c>
@@ -45267,7 +45352,9 @@
       <c r="A23" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="37"/>
+      <c r="B23" s="37">
+        <v>36217</v>
+      </c>
       <c r="C23" s="38">
         <v>70</v>
       </c>
@@ -45307,7 +45394,9 @@
       <c r="A24" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="37"/>
+      <c r="B24" s="37">
+        <v>36218</v>
+      </c>
       <c r="C24" s="38">
         <v>42</v>
       </c>
@@ -45347,7 +45436,9 @@
       <c r="A25" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="37"/>
+      <c r="B25" s="37">
+        <v>36222</v>
+      </c>
       <c r="C25" s="38">
         <v>40</v>
       </c>
@@ -45387,7 +45478,9 @@
       <c r="A26" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="37"/>
+      <c r="B26" s="37">
+        <v>36226</v>
+      </c>
       <c r="C26" s="38">
         <v>38</v>
       </c>
@@ -45427,7 +45520,9 @@
       <c r="A27" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="37"/>
+      <c r="B27" s="37">
+        <v>36227</v>
+      </c>
       <c r="C27" s="38">
         <v>40</v>
       </c>
@@ -45467,7 +45562,9 @@
       <c r="A28" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="37"/>
+      <c r="B28" s="37">
+        <v>36228</v>
+      </c>
       <c r="C28" s="38">
         <v>40</v>
       </c>
@@ -45507,7 +45604,9 @@
       <c r="A29" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="37"/>
+      <c r="B29" s="37">
+        <v>36233</v>
+      </c>
       <c r="C29" s="38">
         <v>34</v>
       </c>
@@ -45547,7 +45646,9 @@
       <c r="A30" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="37"/>
+      <c r="B30" s="37">
+        <v>36234</v>
+      </c>
       <c r="C30" s="38">
         <v>52</v>
       </c>
@@ -45587,7 +45688,9 @@
       <c r="A31" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="37"/>
+      <c r="B31" s="37">
+        <v>36235</v>
+      </c>
       <c r="C31" s="38">
         <v>74</v>
       </c>
@@ -45625,7 +45728,9 @@
       <c r="A32" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="37"/>
+      <c r="B32" s="37">
+        <v>36236</v>
+      </c>
       <c r="C32" s="38">
         <v>120</v>
       </c>
@@ -45665,7 +45770,9 @@
       <c r="A33" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="37"/>
+      <c r="B33" s="37">
+        <v>36244</v>
+      </c>
       <c r="C33" s="38">
         <v>40</v>
       </c>
@@ -45705,7 +45812,9 @@
       <c r="A34" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="37"/>
+      <c r="B34" s="37">
+        <v>36249</v>
+      </c>
       <c r="C34" s="38">
         <v>40</v>
       </c>
@@ -45745,7 +45854,9 @@
       <c r="A35" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="37"/>
+      <c r="B35" s="37">
+        <v>36251</v>
+      </c>
       <c r="C35" s="38">
         <v>28</v>
       </c>
@@ -45785,7 +45896,9 @@
       <c r="A36" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="37"/>
+      <c r="B36" s="37">
+        <v>36257</v>
+      </c>
       <c r="C36" s="38">
         <v>40</v>
       </c>
@@ -45825,7 +45938,9 @@
       <c r="A37" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="37"/>
+      <c r="B37" s="37">
+        <v>36262</v>
+      </c>
       <c r="C37" s="38">
         <v>40</v>
       </c>
@@ -45865,7 +45980,9 @@
       <c r="A38" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="37"/>
+      <c r="B38" s="37">
+        <v>36265</v>
+      </c>
       <c r="C38" s="38">
         <v>36</v>
       </c>
@@ -45905,7 +46022,9 @@
       <c r="A39" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="37"/>
+      <c r="B39" s="37">
+        <v>36268</v>
+      </c>
       <c r="C39" s="38">
         <v>40</v>
       </c>
@@ -45945,7 +46064,9 @@
       <c r="A40" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="37"/>
+      <c r="B40" s="37">
+        <v>36269</v>
+      </c>
       <c r="C40" s="38">
         <v>40</v>
       </c>
@@ -45985,7 +46106,9 @@
       <c r="A41" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="37"/>
+      <c r="B41" s="37">
+        <v>36272</v>
+      </c>
       <c r="C41" s="38">
         <v>40</v>
       </c>
@@ -46025,7 +46148,9 @@
       <c r="A42" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="B42" s="37"/>
+      <c r="B42" s="37">
+        <v>36276</v>
+      </c>
       <c r="C42" s="38">
         <v>40</v>
       </c>
@@ -46065,7 +46190,9 @@
       <c r="A43" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="B43" s="37"/>
+      <c r="B43" s="37">
+        <v>36280</v>
+      </c>
       <c r="C43" s="38">
         <v>40</v>
       </c>
@@ -46103,7 +46230,9 @@
       <c r="A44" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="B44" s="37"/>
+      <c r="B44" s="37">
+        <v>36285</v>
+      </c>
       <c r="C44" s="38">
         <v>40</v>
       </c>
@@ -46143,7 +46272,9 @@
       <c r="A45" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="37"/>
+      <c r="B45" s="37">
+        <v>36288</v>
+      </c>
       <c r="C45" s="38">
         <v>40</v>
       </c>
@@ -46183,7 +46314,9 @@
       <c r="A46" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B46" s="37"/>
+      <c r="B46" s="37">
+        <v>36291</v>
+      </c>
       <c r="C46" s="38">
         <v>32</v>
       </c>
@@ -46223,7 +46356,9 @@
       <c r="A47" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="B47" s="37"/>
+      <c r="B47" s="37">
+        <v>36295</v>
+      </c>
       <c r="C47" s="38">
         <v>32</v>
       </c>
@@ -46263,7 +46398,9 @@
       <c r="A48" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B48" s="37"/>
+      <c r="B48" s="37">
+        <v>36298</v>
+      </c>
       <c r="C48" s="38">
         <v>32</v>
       </c>
@@ -46303,7 +46440,9 @@
       <c r="A49" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="B49" s="37"/>
+      <c r="B49" s="37">
+        <v>36303</v>
+      </c>
       <c r="C49" s="38">
         <v>32</v>
       </c>
@@ -46343,7 +46482,9 @@
       <c r="A50" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="B50" s="37"/>
+      <c r="B50" s="37">
+        <v>36306</v>
+      </c>
       <c r="C50" s="38">
         <v>32</v>
       </c>
@@ -46383,7 +46524,9 @@
       <c r="A51" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="B51" s="37"/>
+      <c r="B51" s="37">
+        <v>36310</v>
+      </c>
       <c r="C51" s="38">
         <v>32</v>
       </c>
@@ -46423,7 +46566,9 @@
       <c r="A52" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B52" s="37"/>
+      <c r="B52" s="37">
+        <v>36315</v>
+      </c>
       <c r="C52" s="38">
         <v>32</v>
       </c>
@@ -46463,7 +46608,9 @@
       <c r="A53" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="B53" s="37"/>
+      <c r="B53" s="37">
+        <v>36320</v>
+      </c>
       <c r="C53" s="38">
         <v>32</v>
       </c>
@@ -46503,7 +46650,9 @@
       <c r="A54" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B54" s="37"/>
+      <c r="B54" s="37">
+        <v>36324</v>
+      </c>
       <c r="C54" s="38">
         <v>32</v>
       </c>
@@ -46543,7 +46692,9 @@
       <c r="A55" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="B55" s="37"/>
+      <c r="B55" s="37">
+        <v>36327</v>
+      </c>
       <c r="C55" s="38">
         <v>32</v>
       </c>
@@ -46583,7 +46734,9 @@
       <c r="A56" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="B56" s="37"/>
+      <c r="B56" s="37">
+        <v>36331</v>
+      </c>
       <c r="C56" s="38">
         <v>32</v>
       </c>
@@ -46623,7 +46776,9 @@
       <c r="A57" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="B57" s="37"/>
+      <c r="B57" s="37">
+        <v>36335</v>
+      </c>
       <c r="C57" s="38">
         <v>32</v>
       </c>
@@ -46663,7 +46818,9 @@
       <c r="A58" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="B58" s="37"/>
+      <c r="B58" s="37">
+        <v>36339</v>
+      </c>
       <c r="C58" s="38">
         <v>32</v>
       </c>
@@ -46703,7 +46860,9 @@
       <c r="A59" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="B59" s="37"/>
+      <c r="B59" s="37">
+        <v>36343</v>
+      </c>
       <c r="C59" s="38">
         <v>32</v>
       </c>
@@ -46743,7 +46902,9 @@
       <c r="A60" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="B60" s="37"/>
+      <c r="B60" s="37">
+        <v>36347</v>
+      </c>
       <c r="C60" s="38">
         <v>32</v>
       </c>
@@ -46783,7 +46944,9 @@
       <c r="A61" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="B61" s="37"/>
+      <c r="B61" s="37">
+        <v>36350</v>
+      </c>
       <c r="C61" s="38">
         <v>32</v>
       </c>
@@ -46823,7 +46986,9 @@
       <c r="A62" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="B62" s="37"/>
+      <c r="B62" s="37">
+        <v>36352</v>
+      </c>
       <c r="C62" s="38">
         <v>32</v>
       </c>
@@ -46863,7 +47028,9 @@
       <c r="A63" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="B63" s="37"/>
+      <c r="B63" s="37">
+        <v>36360</v>
+      </c>
       <c r="C63" s="38">
         <v>50</v>
       </c>
@@ -46903,7 +47070,9 @@
       <c r="A64" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="B64" s="37"/>
+      <c r="B64" s="37">
+        <v>36364</v>
+      </c>
       <c r="C64" s="38">
         <v>50</v>
       </c>
@@ -46943,7 +47112,9 @@
       <c r="A65" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="B65" s="37"/>
+      <c r="B65" s="37">
+        <v>36368</v>
+      </c>
       <c r="C65" s="38">
         <v>50</v>
       </c>
@@ -46977,7 +47148,9 @@
       <c r="A66" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="B66" s="37"/>
+      <c r="B66" s="37">
+        <v>36370</v>
+      </c>
       <c r="C66" s="38">
         <v>50</v>
       </c>
@@ -47011,7 +47184,9 @@
       <c r="A67" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="B67" s="37"/>
+      <c r="B67" s="37">
+        <v>36381</v>
+      </c>
       <c r="C67" s="38">
         <v>30</v>
       </c>
@@ -47045,7 +47220,9 @@
       <c r="A68" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="B68" s="37"/>
+      <c r="B68" s="37">
+        <v>36385</v>
+      </c>
       <c r="C68" s="38">
         <v>30</v>
       </c>
@@ -47079,7 +47256,9 @@
       <c r="A69" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="B69" s="37"/>
+      <c r="B69" s="37">
+        <v>36390</v>
+      </c>
       <c r="C69" s="38">
         <v>30</v>
       </c>
@@ -47119,7 +47298,9 @@
       <c r="A70" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="B70" s="37"/>
+      <c r="B70" s="37">
+        <v>36394</v>
+      </c>
       <c r="C70" s="38">
         <v>30</v>
       </c>
@@ -47159,7 +47340,9 @@
       <c r="A71" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="B71" s="37"/>
+      <c r="B71" s="37">
+        <v>36407</v>
+      </c>
       <c r="C71" s="38">
         <v>30</v>
       </c>
@@ -47199,7 +47382,9 @@
       <c r="A72" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="B72" s="37"/>
+      <c r="B72" s="37">
+        <v>36413</v>
+      </c>
       <c r="C72" s="38">
         <v>30</v>
       </c>
@@ -47239,7 +47424,9 @@
       <c r="A73" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="B73" s="37"/>
+      <c r="B73" s="37">
+        <v>36420</v>
+      </c>
       <c r="C73" s="38">
         <v>30</v>
       </c>
@@ -47279,7 +47466,9 @@
       <c r="A74" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="B74" s="37"/>
+      <c r="B74" s="37">
+        <v>36428</v>
+      </c>
       <c r="C74" s="38">
         <v>32</v>
       </c>
@@ -47319,7 +47508,9 @@
       <c r="A75" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="B75" s="37"/>
+      <c r="B75" s="37">
+        <v>36433</v>
+      </c>
       <c r="C75" s="38">
         <v>32</v>
       </c>
@@ -47359,7 +47550,9 @@
       <c r="A76" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="B76" s="37"/>
+      <c r="B76" s="37">
+        <v>36439</v>
+      </c>
       <c r="C76" s="38">
         <v>28</v>
       </c>
@@ -47399,7 +47592,9 @@
       <c r="A77" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="B77" s="37"/>
+      <c r="B77" s="37">
+        <v>36444</v>
+      </c>
       <c r="C77" s="38">
         <v>28</v>
       </c>
@@ -47439,7 +47634,9 @@
       <c r="A78" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="B78" s="37"/>
+      <c r="B78" s="37">
+        <v>36456</v>
+      </c>
       <c r="C78" s="38">
         <v>28</v>
       </c>
@@ -47479,7 +47676,9 @@
       <c r="A79" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="B79" s="37"/>
+      <c r="B79" s="37">
+        <v>36460</v>
+      </c>
       <c r="C79" s="38">
         <v>28</v>
       </c>
@@ -47519,7 +47718,9 @@
       <c r="A80" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="B80" s="37"/>
+      <c r="B80" s="37">
+        <v>36474</v>
+      </c>
       <c r="C80" s="38">
         <v>28</v>
       </c>
@@ -47559,7 +47760,9 @@
       <c r="A81" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="B81" s="37"/>
+      <c r="B81" s="37">
+        <v>36505</v>
+      </c>
       <c r="C81" s="38">
         <v>30</v>
       </c>
@@ -47599,7 +47802,9 @@
       <c r="A82" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="B82" s="37"/>
+      <c r="B82" s="37">
+        <v>36513</v>
+      </c>
       <c r="C82" s="38">
         <v>30</v>
       </c>
@@ -47639,7 +47844,9 @@
       <c r="A83" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="B83" s="37"/>
+      <c r="B83" s="37">
+        <v>36519</v>
+      </c>
       <c r="C83" s="38">
         <v>30</v>
       </c>
@@ -47679,7 +47886,9 @@
       <c r="A84" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="B84" s="37"/>
+      <c r="B84" s="37">
+        <v>36531</v>
+      </c>
       <c r="C84" s="38">
         <v>30</v>
       </c>
@@ -47719,7 +47928,9 @@
       <c r="A85" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="B85" s="37"/>
+      <c r="B85" s="37">
+        <v>36536</v>
+      </c>
       <c r="C85" s="38">
         <v>30</v>
       </c>
@@ -47759,7 +47970,9 @@
       <c r="A86" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="B86" s="37"/>
+      <c r="B86" s="37">
+        <v>36548</v>
+      </c>
       <c r="C86" s="38">
         <v>30</v>
       </c>
@@ -47799,7 +48012,9 @@
       <c r="A87" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="B87" s="37"/>
+      <c r="B87" s="37">
+        <v>36556</v>
+      </c>
       <c r="C87" s="38">
         <v>30</v>
       </c>
@@ -47839,7 +48054,9 @@
       <c r="A88" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="B88" s="37"/>
+      <c r="B88" s="37">
+        <v>36566</v>
+      </c>
       <c r="C88" s="38">
         <v>25</v>
       </c>
@@ -47879,7 +48096,9 @@
       <c r="A89" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="B89" s="37"/>
+      <c r="B89" s="37">
+        <v>36576</v>
+      </c>
       <c r="C89" s="38">
         <v>34</v>
       </c>
@@ -47919,7 +48138,9 @@
       <c r="A90" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="B90" s="37"/>
+      <c r="B90" s="37">
+        <v>36582</v>
+      </c>
       <c r="C90" s="38">
         <v>34</v>
       </c>
@@ -47959,7 +48180,9 @@
       <c r="A91" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="B91" s="37"/>
+      <c r="B91" s="37">
+        <v>36590</v>
+      </c>
       <c r="C91" s="38">
         <v>34</v>
       </c>
@@ -47999,7 +48222,9 @@
       <c r="A92" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="B92" s="37"/>
+      <c r="B92" s="37">
+        <v>36602</v>
+      </c>
       <c r="C92" s="38">
         <v>34</v>
       </c>
@@ -48039,7 +48264,9 @@
       <c r="A93" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="B93" s="37"/>
+      <c r="B93" s="37">
+        <v>36622</v>
+      </c>
       <c r="C93" s="38">
         <v>32</v>
       </c>
@@ -48079,7 +48306,9 @@
       <c r="A94" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="B94" s="37"/>
+      <c r="B94" s="37">
+        <v>36629</v>
+      </c>
       <c r="C94" s="38">
         <v>32</v>
       </c>
@@ -48117,7 +48346,9 @@
       <c r="A95" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="B95" s="37"/>
+      <c r="B95" s="37">
+        <v>36632</v>
+      </c>
       <c r="C95" s="38">
         <v>32</v>
       </c>
@@ -48157,7 +48388,9 @@
       <c r="A96" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="B96" s="37"/>
+      <c r="B96" s="37">
+        <v>36645</v>
+      </c>
       <c r="C96" s="38">
         <v>32</v>
       </c>
@@ -48197,7 +48430,9 @@
       <c r="A97" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="B97" s="37"/>
+      <c r="B97" s="37">
+        <v>36651</v>
+      </c>
       <c r="C97" s="38">
         <v>18</v>
       </c>
@@ -48237,7 +48472,9 @@
       <c r="A98" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="B98" s="37"/>
+      <c r="B98" s="37">
+        <v>36659</v>
+      </c>
       <c r="C98" s="38">
         <v>32</v>
       </c>
@@ -48275,7 +48512,9 @@
       <c r="A99" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="B99" s="37"/>
+      <c r="B99" s="37">
+        <v>36668</v>
+      </c>
       <c r="C99" s="38">
         <v>32</v>
       </c>
@@ -48315,7 +48554,9 @@
       <c r="A100" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="B100" s="37"/>
+      <c r="B100" s="37">
+        <v>36670</v>
+      </c>
       <c r="C100" s="38">
         <v>32</v>
       </c>
@@ -48355,7 +48596,9 @@
       <c r="A101" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="B101" s="37"/>
+      <c r="B101" s="37">
+        <v>36679</v>
+      </c>
       <c r="C101" s="38">
         <v>32</v>
       </c>
@@ -48395,7 +48638,9 @@
       <c r="A102" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="B102" s="37"/>
+      <c r="B102" s="37">
+        <v>36688</v>
+      </c>
       <c r="C102" s="38">
         <v>36</v>
       </c>
@@ -48435,7 +48680,9 @@
       <c r="A103" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="B103" s="37"/>
+      <c r="B103" s="37">
+        <v>36720</v>
+      </c>
       <c r="C103" s="38">
         <v>36</v>
       </c>
@@ -48475,7 +48722,9 @@
       <c r="A104" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="B104" s="37"/>
+      <c r="B104" s="37">
+        <v>36735</v>
+      </c>
       <c r="C104" s="38">
         <v>36</v>
       </c>
@@ -48515,7 +48764,9 @@
       <c r="A105" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="B105" s="37"/>
+      <c r="B105" s="37">
+        <v>36749</v>
+      </c>
       <c r="C105" s="38">
         <v>36</v>
       </c>
@@ -48553,7 +48804,9 @@
     </row>
     <row r="106" spans="1:27">
       <c r="A106" s="37"/>
-      <c r="B106" s="37"/>
+      <c r="B106" s="37">
+        <v>36754</v>
+      </c>
       <c r="C106" s="38">
         <v>36</v>
       </c>
@@ -48591,7 +48844,9 @@
     </row>
     <row r="107" spans="1:27" ht="16.5" thickBot="1">
       <c r="A107" s="37"/>
-      <c r="B107" s="37"/>
+      <c r="B107" s="37">
+        <v>36760</v>
+      </c>
       <c r="C107" s="38">
         <v>34</v>
       </c>
@@ -48629,7 +48884,9 @@
     </row>
     <row r="108" spans="1:27" ht="16.5" thickBot="1">
       <c r="A108" s="37"/>
-      <c r="B108" s="37"/>
+      <c r="B108" s="37">
+        <v>36793</v>
+      </c>
       <c r="C108" s="38">
         <v>34</v>
       </c>
@@ -48666,26 +48923,28 @@
       <c r="M108" s="45"/>
       <c r="R108" s="62"/>
       <c r="S108" s="63"/>
-      <c r="T108" s="122" t="s">
+      <c r="T108" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="U108" s="109"/>
-      <c r="V108" s="109" t="s">
+      <c r="U108" s="83"/>
+      <c r="V108" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="W108" s="109"/>
-      <c r="X108" s="109" t="s">
+      <c r="W108" s="83"/>
+      <c r="X108" s="83" t="s">
         <v>119</v>
       </c>
-      <c r="Y108" s="109"/>
-      <c r="Z108" s="109" t="s">
+      <c r="Y108" s="83"/>
+      <c r="Z108" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="AA108" s="109"/>
+      <c r="AA108" s="83"/>
     </row>
     <row r="109" spans="1:27" ht="17.25" thickTop="1" thickBot="1">
       <c r="A109" s="37"/>
-      <c r="B109" s="37"/>
+      <c r="B109" s="37">
+        <v>36799</v>
+      </c>
       <c r="C109" s="38">
         <v>34</v>
       </c>
@@ -48722,26 +48981,28 @@
       <c r="M109" s="45"/>
       <c r="R109" s="62"/>
       <c r="S109" s="64"/>
-      <c r="T109" s="110" t="s">
+      <c r="T109" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="U109" s="110"/>
-      <c r="V109" s="112" t="s">
+      <c r="U109" s="84"/>
+      <c r="V109" s="86" t="s">
         <v>122</v>
       </c>
-      <c r="W109" s="112"/>
-      <c r="X109" s="112" t="s">
+      <c r="W109" s="86"/>
+      <c r="X109" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="Y109" s="112"/>
-      <c r="Z109" s="112" t="s">
+      <c r="Y109" s="86"/>
+      <c r="Z109" s="86" t="s">
         <v>124</v>
       </c>
-      <c r="AA109" s="112"/>
+      <c r="AA109" s="86"/>
     </row>
     <row r="110" spans="1:27" ht="17.25" thickTop="1" thickBot="1">
       <c r="A110" s="37"/>
-      <c r="B110" s="37"/>
+      <c r="B110" s="37">
+        <v>36808</v>
+      </c>
       <c r="C110" s="38">
         <v>34</v>
       </c>
@@ -48778,24 +49039,26 @@
       <c r="M110" s="45"/>
       <c r="R110" s="53"/>
       <c r="S110" s="65"/>
-      <c r="T110" s="110"/>
-      <c r="U110" s="110"/>
-      <c r="V110" s="113" t="s">
+      <c r="T110" s="84"/>
+      <c r="U110" s="84"/>
+      <c r="V110" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="W110" s="113"/>
-      <c r="X110" s="113" t="s">
+      <c r="W110" s="87"/>
+      <c r="X110" s="87" t="s">
         <v>126</v>
       </c>
-      <c r="Y110" s="113"/>
-      <c r="Z110" s="113" t="s">
+      <c r="Y110" s="87"/>
+      <c r="Z110" s="87" t="s">
         <v>127</v>
       </c>
-      <c r="AA110" s="113"/>
+      <c r="AA110" s="87"/>
     </row>
     <row r="111" spans="1:27" ht="17.25" thickTop="1" thickBot="1">
       <c r="A111" s="37"/>
-      <c r="B111" s="37"/>
+      <c r="B111" s="37">
+        <v>36824</v>
+      </c>
       <c r="C111" s="38">
         <v>34</v>
       </c>
@@ -48831,24 +49094,26 @@
       </c>
       <c r="M111" s="45"/>
       <c r="S111" s="66"/>
-      <c r="T111" s="110"/>
-      <c r="U111" s="110"/>
-      <c r="V111" s="114" t="s">
+      <c r="T111" s="84"/>
+      <c r="U111" s="84"/>
+      <c r="V111" s="88" t="s">
         <v>128</v>
       </c>
-      <c r="W111" s="114"/>
-      <c r="X111" s="114" t="s">
+      <c r="W111" s="88"/>
+      <c r="X111" s="88" t="s">
         <v>129</v>
       </c>
-      <c r="Y111" s="114"/>
-      <c r="Z111" s="114" t="s">
+      <c r="Y111" s="88"/>
+      <c r="Z111" s="88" t="s">
         <v>130</v>
       </c>
-      <c r="AA111" s="114"/>
+      <c r="AA111" s="88"/>
     </row>
     <row r="112" spans="1:27" ht="17.25" thickTop="1" thickBot="1">
       <c r="A112" s="37"/>
-      <c r="B112" s="37"/>
+      <c r="B112" s="37">
+        <v>36843</v>
+      </c>
       <c r="C112" s="38"/>
       <c r="D112" s="39">
         <v>89</v>
@@ -48882,24 +49147,26 @@
       </c>
       <c r="M112" s="45"/>
       <c r="S112" s="67"/>
-      <c r="T112" s="110"/>
-      <c r="U112" s="110"/>
-      <c r="V112" s="115" t="s">
+      <c r="T112" s="84"/>
+      <c r="U112" s="84"/>
+      <c r="V112" s="89" t="s">
         <v>131</v>
       </c>
-      <c r="W112" s="115"/>
-      <c r="X112" s="115" t="s">
+      <c r="W112" s="89"/>
+      <c r="X112" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="Y112" s="115"/>
-      <c r="Z112" s="115" t="s">
+      <c r="Y112" s="89"/>
+      <c r="Z112" s="89" t="s">
         <v>133</v>
       </c>
-      <c r="AA112" s="115"/>
+      <c r="AA112" s="89"/>
     </row>
     <row r="113" spans="1:29" ht="17.25" thickTop="1" thickBot="1">
       <c r="A113" s="37"/>
-      <c r="B113" s="37"/>
+      <c r="B113" s="37">
+        <v>36845</v>
+      </c>
       <c r="C113" s="38"/>
       <c r="D113" s="39">
         <v>68.8</v>
@@ -48933,24 +49200,26 @@
       </c>
       <c r="M113" s="45"/>
       <c r="S113" s="68"/>
-      <c r="T113" s="111"/>
-      <c r="U113" s="111"/>
-      <c r="V113" s="94" t="s">
+      <c r="T113" s="85"/>
+      <c r="U113" s="85"/>
+      <c r="V113" s="90" t="s">
         <v>134</v>
       </c>
-      <c r="W113" s="94"/>
-      <c r="X113" s="94" t="s">
+      <c r="W113" s="90"/>
+      <c r="X113" s="90" t="s">
         <v>135</v>
       </c>
-      <c r="Y113" s="94"/>
-      <c r="Z113" s="94" t="s">
+      <c r="Y113" s="90"/>
+      <c r="Z113" s="90" t="s">
         <v>136</v>
       </c>
-      <c r="AA113" s="94"/>
+      <c r="AA113" s="90"/>
     </row>
     <row r="114" spans="1:29" ht="16.5" thickBot="1">
       <c r="A114" s="37"/>
-      <c r="B114" s="37"/>
+      <c r="B114" s="37">
+        <v>36857</v>
+      </c>
       <c r="C114" s="38"/>
       <c r="D114" s="39">
         <v>88.5</v>
@@ -48989,7 +49258,9 @@
     </row>
     <row r="115" spans="1:29">
       <c r="A115" s="37"/>
-      <c r="B115" s="37"/>
+      <c r="B115" s="37">
+        <v>36887</v>
+      </c>
       <c r="C115" s="38"/>
       <c r="D115" s="39">
         <v>88.2</v>
@@ -49022,26 +49293,28 @@
         <v>1585.8405288720992</v>
       </c>
       <c r="M115" s="45"/>
-      <c r="R115" s="95" t="s">
+      <c r="R115" s="91" t="s">
         <v>137</v>
       </c>
-      <c r="S115" s="95"/>
-      <c r="T115" s="95"/>
-      <c r="U115" s="95"/>
-      <c r="V115" s="95"/>
-      <c r="W115" s="95"/>
-      <c r="X115" s="95"/>
-      <c r="Y115" s="95"/>
-      <c r="Z115" s="95"/>
-      <c r="AA115" s="97" t="s">
+      <c r="S115" s="91"/>
+      <c r="T115" s="91"/>
+      <c r="U115" s="91"/>
+      <c r="V115" s="91"/>
+      <c r="W115" s="91"/>
+      <c r="X115" s="91"/>
+      <c r="Y115" s="91"/>
+      <c r="Z115" s="91"/>
+      <c r="AA115" s="93" t="s">
         <v>138</v>
       </c>
-      <c r="AB115" s="97"/>
-      <c r="AC115" s="97"/>
+      <c r="AB115" s="93"/>
+      <c r="AC115" s="93"/>
     </row>
     <row r="116" spans="1:29" ht="25.5" customHeight="1">
       <c r="A116" s="37"/>
-      <c r="B116" s="37"/>
+      <c r="B116" s="37">
+        <v>36902</v>
+      </c>
       <c r="C116" s="38"/>
       <c r="D116" s="39">
         <v>87.1</v>
@@ -49074,22 +49347,24 @@
         <v>1548.0703236365555</v>
       </c>
       <c r="M116" s="45"/>
-      <c r="R116" s="96"/>
-      <c r="S116" s="96"/>
-      <c r="T116" s="96"/>
-      <c r="U116" s="96"/>
-      <c r="V116" s="96"/>
-      <c r="W116" s="96"/>
-      <c r="X116" s="96"/>
-      <c r="Y116" s="96"/>
-      <c r="Z116" s="96"/>
-      <c r="AA116" s="98"/>
-      <c r="AB116" s="98"/>
-      <c r="AC116" s="98"/>
+      <c r="R116" s="92"/>
+      <c r="S116" s="92"/>
+      <c r="T116" s="92"/>
+      <c r="U116" s="92"/>
+      <c r="V116" s="92"/>
+      <c r="W116" s="92"/>
+      <c r="X116" s="92"/>
+      <c r="Y116" s="92"/>
+      <c r="Z116" s="92"/>
+      <c r="AA116" s="94"/>
+      <c r="AB116" s="94"/>
+      <c r="AC116" s="94"/>
     </row>
     <row r="117" spans="1:29" ht="23.25" customHeight="1" thickBot="1">
       <c r="A117" s="37"/>
-      <c r="B117" s="37"/>
+      <c r="B117" s="37">
+        <v>36909</v>
+      </c>
       <c r="C117" s="38"/>
       <c r="D117" s="39">
         <v>87.4</v>
@@ -49122,24 +49397,26 @@
         <v>1422.3697466896949</v>
       </c>
       <c r="M117" s="45"/>
-      <c r="R117" s="103"/>
-      <c r="S117" s="104"/>
-      <c r="T117" s="104"/>
-      <c r="U117" s="104"/>
-      <c r="V117" s="104"/>
-      <c r="W117" s="104"/>
-      <c r="X117" s="104"/>
-      <c r="Y117" s="104"/>
-      <c r="Z117" s="105"/>
-      <c r="AA117" s="106" t="s">
+      <c r="R117" s="99"/>
+      <c r="S117" s="100"/>
+      <c r="T117" s="100"/>
+      <c r="U117" s="100"/>
+      <c r="V117" s="100"/>
+      <c r="W117" s="100"/>
+      <c r="X117" s="100"/>
+      <c r="Y117" s="100"/>
+      <c r="Z117" s="101"/>
+      <c r="AA117" s="102" t="s">
         <v>139</v>
       </c>
-      <c r="AB117" s="107"/>
-      <c r="AC117" s="108"/>
+      <c r="AB117" s="103"/>
+      <c r="AC117" s="104"/>
     </row>
     <row r="118" spans="1:29" ht="25.5" customHeight="1" thickTop="1">
       <c r="A118" s="37"/>
-      <c r="B118" s="37"/>
+      <c r="B118" s="37">
+        <v>36933</v>
+      </c>
       <c r="C118" s="38"/>
       <c r="D118" s="39">
         <v>87.3</v>
@@ -49172,26 +49449,28 @@
         <v>1568.5344575209322</v>
       </c>
       <c r="M118" s="45"/>
-      <c r="R118" s="99" t="s">
+      <c r="R118" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="S118" s="99"/>
-      <c r="T118" s="99"/>
-      <c r="U118" s="99"/>
-      <c r="V118" s="99"/>
-      <c r="W118" s="99"/>
-      <c r="X118" s="99"/>
-      <c r="Y118" s="99"/>
-      <c r="Z118" s="99"/>
-      <c r="AA118" s="100" t="s">
+      <c r="S118" s="95"/>
+      <c r="T118" s="95"/>
+      <c r="U118" s="95"/>
+      <c r="V118" s="95"/>
+      <c r="W118" s="95"/>
+      <c r="X118" s="95"/>
+      <c r="Y118" s="95"/>
+      <c r="Z118" s="95"/>
+      <c r="AA118" s="96" t="s">
         <v>141</v>
       </c>
-      <c r="AB118" s="101"/>
-      <c r="AC118" s="102"/>
+      <c r="AB118" s="97"/>
+      <c r="AC118" s="98"/>
     </row>
     <row r="119" spans="1:29">
       <c r="A119" s="37"/>
-      <c r="B119" s="37"/>
+      <c r="B119" s="37">
+        <v>36935</v>
+      </c>
       <c r="C119" s="38"/>
       <c r="D119" s="39">
         <v>87.1</v>
@@ -49224,26 +49503,28 @@
         <v>1478.6284640676374</v>
       </c>
       <c r="M119" s="45"/>
-      <c r="R119" s="76" t="s">
+      <c r="R119" s="105" t="s">
         <v>142</v>
       </c>
-      <c r="S119" s="77"/>
-      <c r="T119" s="77"/>
-      <c r="U119" s="77"/>
-      <c r="V119" s="77"/>
-      <c r="W119" s="77"/>
-      <c r="X119" s="77"/>
-      <c r="Y119" s="77"/>
-      <c r="Z119" s="78"/>
-      <c r="AA119" s="82" t="s">
+      <c r="S119" s="106"/>
+      <c r="T119" s="106"/>
+      <c r="U119" s="106"/>
+      <c r="V119" s="106"/>
+      <c r="W119" s="106"/>
+      <c r="X119" s="106"/>
+      <c r="Y119" s="106"/>
+      <c r="Z119" s="107"/>
+      <c r="AA119" s="111" t="s">
         <v>139</v>
       </c>
-      <c r="AB119" s="83"/>
-      <c r="AC119" s="84"/>
+      <c r="AB119" s="112"/>
+      <c r="AC119" s="113"/>
     </row>
     <row r="120" spans="1:29" ht="15.75" customHeight="1">
       <c r="A120" s="37"/>
-      <c r="B120" s="37"/>
+      <c r="B120" s="37">
+        <v>36948</v>
+      </c>
       <c r="C120" s="38"/>
       <c r="D120" s="39">
         <v>87.6</v>
@@ -49276,22 +49557,24 @@
         <v>1483.0012954728477</v>
       </c>
       <c r="M120" s="45"/>
-      <c r="R120" s="76"/>
-      <c r="S120" s="77"/>
-      <c r="T120" s="77"/>
-      <c r="U120" s="77"/>
-      <c r="V120" s="77"/>
-      <c r="W120" s="77"/>
-      <c r="X120" s="77"/>
-      <c r="Y120" s="77"/>
-      <c r="Z120" s="78"/>
-      <c r="AA120" s="82"/>
-      <c r="AB120" s="83"/>
-      <c r="AC120" s="84"/>
+      <c r="R120" s="105"/>
+      <c r="S120" s="106"/>
+      <c r="T120" s="106"/>
+      <c r="U120" s="106"/>
+      <c r="V120" s="106"/>
+      <c r="W120" s="106"/>
+      <c r="X120" s="106"/>
+      <c r="Y120" s="106"/>
+      <c r="Z120" s="107"/>
+      <c r="AA120" s="111"/>
+      <c r="AB120" s="112"/>
+      <c r="AC120" s="113"/>
     </row>
     <row r="121" spans="1:29" ht="15.75" customHeight="1">
       <c r="A121" s="37"/>
-      <c r="B121" s="37"/>
+      <c r="B121" s="37">
+        <v>36949</v>
+      </c>
       <c r="C121" s="38"/>
       <c r="D121" s="39">
         <v>88.4</v>
@@ -49324,22 +49607,24 @@
         <v>1545.6601505662047</v>
       </c>
       <c r="M121" s="45"/>
-      <c r="R121" s="76"/>
-      <c r="S121" s="77"/>
-      <c r="T121" s="77"/>
-      <c r="U121" s="77"/>
-      <c r="V121" s="77"/>
-      <c r="W121" s="77"/>
-      <c r="X121" s="77"/>
-      <c r="Y121" s="77"/>
-      <c r="Z121" s="78"/>
-      <c r="AA121" s="82"/>
-      <c r="AB121" s="83"/>
-      <c r="AC121" s="84"/>
+      <c r="R121" s="105"/>
+      <c r="S121" s="106"/>
+      <c r="T121" s="106"/>
+      <c r="U121" s="106"/>
+      <c r="V121" s="106"/>
+      <c r="W121" s="106"/>
+      <c r="X121" s="106"/>
+      <c r="Y121" s="106"/>
+      <c r="Z121" s="107"/>
+      <c r="AA121" s="111"/>
+      <c r="AB121" s="112"/>
+      <c r="AC121" s="113"/>
     </row>
     <row r="122" spans="1:29" ht="15" customHeight="1">
       <c r="A122" s="37"/>
-      <c r="B122" s="37"/>
+      <c r="B122" s="37">
+        <v>36963</v>
+      </c>
       <c r="C122" s="38"/>
       <c r="D122" s="39">
         <v>88.2</v>
@@ -49372,22 +49657,24 @@
         <v>1681.1191099476439</v>
       </c>
       <c r="M122" s="45"/>
-      <c r="R122" s="76"/>
-      <c r="S122" s="77"/>
-      <c r="T122" s="77"/>
-      <c r="U122" s="77"/>
-      <c r="V122" s="77"/>
-      <c r="W122" s="77"/>
-      <c r="X122" s="77"/>
-      <c r="Y122" s="77"/>
-      <c r="Z122" s="78"/>
-      <c r="AA122" s="82"/>
-      <c r="AB122" s="83"/>
-      <c r="AC122" s="84"/>
+      <c r="R122" s="105"/>
+      <c r="S122" s="106"/>
+      <c r="T122" s="106"/>
+      <c r="U122" s="106"/>
+      <c r="V122" s="106"/>
+      <c r="W122" s="106"/>
+      <c r="X122" s="106"/>
+      <c r="Y122" s="106"/>
+      <c r="Z122" s="107"/>
+      <c r="AA122" s="111"/>
+      <c r="AB122" s="112"/>
+      <c r="AC122" s="113"/>
     </row>
     <row r="123" spans="1:29" ht="17.25" customHeight="1" thickBot="1">
       <c r="A123" s="37"/>
-      <c r="B123" s="37"/>
+      <c r="B123" s="37">
+        <v>36970</v>
+      </c>
       <c r="C123" s="38"/>
       <c r="D123" s="39">
         <v>87.8</v>
@@ -49420,22 +49707,24 @@
         <v>1844.895996152459</v>
       </c>
       <c r="M123" s="45"/>
-      <c r="R123" s="79"/>
-      <c r="S123" s="80"/>
-      <c r="T123" s="80"/>
-      <c r="U123" s="80"/>
-      <c r="V123" s="80"/>
-      <c r="W123" s="80"/>
-      <c r="X123" s="80"/>
-      <c r="Y123" s="80"/>
-      <c r="Z123" s="81"/>
-      <c r="AA123" s="85"/>
-      <c r="AB123" s="86"/>
-      <c r="AC123" s="87"/>
+      <c r="R123" s="108"/>
+      <c r="S123" s="109"/>
+      <c r="T123" s="109"/>
+      <c r="U123" s="109"/>
+      <c r="V123" s="109"/>
+      <c r="W123" s="109"/>
+      <c r="X123" s="109"/>
+      <c r="Y123" s="109"/>
+      <c r="Z123" s="110"/>
+      <c r="AA123" s="114"/>
+      <c r="AB123" s="115"/>
+      <c r="AC123" s="116"/>
     </row>
     <row r="124" spans="1:29" ht="24.75" customHeight="1" thickTop="1">
       <c r="A124" s="37"/>
-      <c r="B124" s="37"/>
+      <c r="B124" s="37">
+        <v>36972</v>
+      </c>
       <c r="C124" s="38"/>
       <c r="D124" s="39">
         <v>87.6</v>
@@ -49468,26 +49757,28 @@
         <v>1958.6480534371985</v>
       </c>
       <c r="M124" s="45"/>
-      <c r="R124" s="90" t="s">
+      <c r="R124" s="119" t="s">
         <v>143</v>
       </c>
-      <c r="S124" s="90"/>
-      <c r="T124" s="90"/>
-      <c r="U124" s="90"/>
-      <c r="V124" s="90"/>
-      <c r="W124" s="90"/>
-      <c r="X124" s="90"/>
-      <c r="Y124" s="90"/>
-      <c r="Z124" s="90"/>
-      <c r="AA124" s="91" t="s">
+      <c r="S124" s="119"/>
+      <c r="T124" s="119"/>
+      <c r="U124" s="119"/>
+      <c r="V124" s="119"/>
+      <c r="W124" s="119"/>
+      <c r="X124" s="119"/>
+      <c r="Y124" s="119"/>
+      <c r="Z124" s="119"/>
+      <c r="AA124" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="AB124" s="91"/>
-      <c r="AC124" s="91"/>
+      <c r="AB124" s="120"/>
+      <c r="AC124" s="120"/>
     </row>
     <row r="125" spans="1:29" ht="22.5" customHeight="1">
       <c r="A125" s="37"/>
-      <c r="B125" s="37"/>
+      <c r="B125" s="37">
+        <v>37004</v>
+      </c>
       <c r="C125" s="38"/>
       <c r="D125" s="39">
         <v>87.4</v>
@@ -49520,24 +49811,26 @@
         <v>1952.6151012891344</v>
       </c>
       <c r="M125" s="45"/>
-      <c r="R125" s="92"/>
-      <c r="S125" s="92"/>
-      <c r="T125" s="92"/>
-      <c r="U125" s="92"/>
-      <c r="V125" s="92"/>
-      <c r="W125" s="92"/>
-      <c r="X125" s="92"/>
-      <c r="Y125" s="92"/>
-      <c r="Z125" s="92"/>
-      <c r="AA125" s="93" t="s">
+      <c r="R125" s="121"/>
+      <c r="S125" s="121"/>
+      <c r="T125" s="121"/>
+      <c r="U125" s="121"/>
+      <c r="V125" s="121"/>
+      <c r="W125" s="121"/>
+      <c r="X125" s="121"/>
+      <c r="Y125" s="121"/>
+      <c r="Z125" s="121"/>
+      <c r="AA125" s="122" t="s">
         <v>145</v>
       </c>
-      <c r="AB125" s="93"/>
-      <c r="AC125" s="93"/>
+      <c r="AB125" s="122"/>
+      <c r="AC125" s="122"/>
     </row>
     <row r="126" spans="1:29" ht="19.5" customHeight="1" thickBot="1">
       <c r="A126" s="37"/>
-      <c r="B126" s="37"/>
+      <c r="B126" s="37">
+        <v>37019</v>
+      </c>
       <c r="C126" s="38"/>
       <c r="D126" s="39">
         <v>86.9</v>
@@ -49570,24 +49863,26 @@
         <v>2148.9451476793247</v>
       </c>
       <c r="M126" s="45"/>
-      <c r="R126" s="88"/>
-      <c r="S126" s="88"/>
-      <c r="T126" s="88"/>
-      <c r="U126" s="88"/>
-      <c r="V126" s="88"/>
-      <c r="W126" s="88"/>
-      <c r="X126" s="88"/>
-      <c r="Y126" s="88"/>
-      <c r="Z126" s="88"/>
-      <c r="AA126" s="89" t="s">
+      <c r="R126" s="117"/>
+      <c r="S126" s="117"/>
+      <c r="T126" s="117"/>
+      <c r="U126" s="117"/>
+      <c r="V126" s="117"/>
+      <c r="W126" s="117"/>
+      <c r="X126" s="117"/>
+      <c r="Y126" s="117"/>
+      <c r="Z126" s="117"/>
+      <c r="AA126" s="118" t="s">
         <v>146</v>
       </c>
-      <c r="AB126" s="89"/>
-      <c r="AC126" s="89"/>
+      <c r="AB126" s="118"/>
+      <c r="AC126" s="118"/>
     </row>
     <row r="127" spans="1:29">
       <c r="A127" s="37"/>
-      <c r="B127" s="37"/>
+      <c r="B127" s="37">
+        <v>37045</v>
+      </c>
       <c r="C127" s="38"/>
       <c r="D127" s="39">
         <v>86.9</v>
@@ -49623,7 +49918,9 @@
     </row>
     <row r="128" spans="1:29">
       <c r="A128" s="37"/>
-      <c r="B128" s="37"/>
+      <c r="B128" s="37">
+        <v>37073</v>
+      </c>
       <c r="C128" s="38"/>
       <c r="D128" s="39">
         <v>86.6</v>
@@ -49659,7 +49956,9 @@
     </row>
     <row r="129" spans="1:13">
       <c r="A129" s="37"/>
-      <c r="B129" s="37"/>
+      <c r="B129" s="37">
+        <v>37104</v>
+      </c>
       <c r="C129" s="38"/>
       <c r="D129" s="39">
         <v>86.3</v>
@@ -49695,7 +49994,9 @@
     </row>
     <row r="130" spans="1:13">
       <c r="A130" s="37"/>
-      <c r="B130" s="37"/>
+      <c r="B130" s="37">
+        <v>37167</v>
+      </c>
       <c r="C130" s="38"/>
       <c r="D130" s="39">
         <v>86.3</v>
@@ -49731,7 +50032,9 @@
     </row>
     <row r="131" spans="1:13">
       <c r="A131" s="37"/>
-      <c r="B131" s="37"/>
+      <c r="B131" s="37">
+        <v>37187</v>
+      </c>
       <c r="C131" s="38"/>
       <c r="D131" s="39">
         <v>86.2</v>
@@ -49767,7 +50070,9 @@
     </row>
     <row r="132" spans="1:13">
       <c r="A132" s="37"/>
-      <c r="B132" s="37"/>
+      <c r="B132" s="37">
+        <v>37194</v>
+      </c>
       <c r="C132" s="38"/>
       <c r="D132" s="39">
         <v>86.4</v>
@@ -49803,7 +50108,9 @@
     </row>
     <row r="133" spans="1:13">
       <c r="A133" s="37"/>
-      <c r="B133" s="37"/>
+      <c r="B133" s="37">
+        <v>37220</v>
+      </c>
       <c r="C133" s="38"/>
       <c r="D133" s="39">
         <v>85.8</v>
@@ -49839,7 +50146,9 @@
     </row>
     <row r="134" spans="1:13">
       <c r="A134" s="37"/>
-      <c r="B134" s="37"/>
+      <c r="B134" s="37">
+        <v>37240</v>
+      </c>
       <c r="C134" s="38"/>
       <c r="D134" s="39">
         <v>86</v>
@@ -49877,7 +50186,9 @@
       <c r="A135" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="B135" s="37"/>
+      <c r="B135" s="37">
+        <v>37269</v>
+      </c>
       <c r="C135" s="38"/>
       <c r="D135" s="39">
         <v>86.1</v>
@@ -49915,7 +50226,9 @@
       <c r="A136" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="B136" s="37"/>
+      <c r="B136" s="37">
+        <v>37304</v>
+      </c>
       <c r="C136" s="38"/>
       <c r="D136" s="39">
         <v>85.4</v>
@@ -49953,7 +50266,9 @@
       <c r="A137" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="B137" s="37"/>
+      <c r="B137" s="37">
+        <v>37328</v>
+      </c>
       <c r="C137" s="38"/>
       <c r="D137" s="39">
         <v>85.5</v>
@@ -49991,7 +50306,9 @@
       <c r="A138" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="B138" s="37"/>
+      <c r="B138" s="37">
+        <v>37337</v>
+      </c>
       <c r="C138" s="38"/>
       <c r="D138" s="39">
         <v>85.4</v>
@@ -50029,7 +50346,9 @@
       <c r="A139" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="B139" s="37"/>
+      <c r="B139" s="37">
+        <v>37340</v>
+      </c>
       <c r="C139" s="38"/>
       <c r="D139" s="39">
         <v>85.8</v>
@@ -50067,7 +50386,9 @@
       <c r="A140" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="B140" s="37"/>
+      <c r="B140" s="37">
+        <v>37357</v>
+      </c>
       <c r="C140" s="38"/>
       <c r="D140" s="39">
         <v>85.7</v>
@@ -50105,7 +50426,9 @@
       <c r="A141" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="B141" s="37"/>
+      <c r="B141" s="37">
+        <v>37378</v>
+      </c>
       <c r="C141" s="38"/>
       <c r="D141" s="39">
         <v>85.8</v>
@@ -50143,7 +50466,9 @@
       <c r="A142" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="B142" s="37"/>
+      <c r="B142" s="37">
+        <v>37409</v>
+      </c>
       <c r="C142" s="38"/>
       <c r="D142" s="39">
         <v>85.8</v>
@@ -50181,7 +50506,9 @@
       <c r="A143" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="B143" s="37"/>
+      <c r="B143" s="37">
+        <v>37439</v>
+      </c>
       <c r="C143" s="38"/>
       <c r="D143" s="39">
         <v>86.2</v>
@@ -50219,7 +50546,9 @@
       <c r="A144" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="B144" s="37"/>
+      <c r="B144" s="37">
+        <v>37470</v>
+      </c>
       <c r="C144" s="38"/>
       <c r="D144" s="39">
         <v>86.3</v>
@@ -50257,7 +50586,9 @@
       <c r="A145" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="B145" s="37"/>
+      <c r="B145" s="37">
+        <v>37500</v>
+      </c>
       <c r="C145" s="38"/>
       <c r="D145" s="39">
         <v>85.9</v>
@@ -50295,7 +50626,9 @@
       <c r="A146" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="B146" s="37"/>
+      <c r="B146" s="37">
+        <v>37530</v>
+      </c>
       <c r="C146" s="38"/>
       <c r="D146" s="39">
         <v>85.5</v>
@@ -50333,7 +50666,9 @@
       <c r="A147" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="B147" s="37"/>
+      <c r="B147" s="37">
+        <v>37569</v>
+      </c>
       <c r="C147" s="38"/>
       <c r="D147" s="39">
         <v>86.2</v>
@@ -50371,7 +50706,9 @@
       <c r="A148" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="B148" s="37"/>
+      <c r="B148" s="37">
+        <v>37595</v>
+      </c>
       <c r="C148" s="38"/>
       <c r="D148" s="39">
         <v>86.6</v>
@@ -50409,7 +50746,9 @@
       <c r="A149" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="B149" s="37"/>
+      <c r="B149" s="37">
+        <v>37629</v>
+      </c>
       <c r="C149" s="38"/>
       <c r="D149" s="39">
         <v>86.7</v>
@@ -50447,7 +50786,9 @@
       <c r="A150" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="B150" s="37"/>
+      <c r="B150" s="37">
+        <v>37655</v>
+      </c>
       <c r="C150" s="38"/>
       <c r="D150" s="39">
         <v>86.4</v>
@@ -50485,7 +50826,9 @@
       <c r="A151" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="B151" s="37"/>
+      <c r="B151" s="37">
+        <v>37686</v>
+      </c>
       <c r="C151" s="38"/>
       <c r="D151" s="39">
         <v>86.3</v>
@@ -50523,7 +50866,9 @@
       <c r="A152" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="B152" s="37"/>
+      <c r="B152" s="37">
+        <v>37716</v>
+      </c>
       <c r="C152" s="38"/>
       <c r="D152" s="39">
         <v>86.2</v>
@@ -50561,7 +50906,9 @@
       <c r="A153" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="B153" s="37"/>
+      <c r="B153" s="37">
+        <v>37750</v>
+      </c>
       <c r="C153" s="38"/>
       <c r="D153" s="39">
         <v>86.2</v>
@@ -50599,7 +50946,9 @@
       <c r="A154" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="B154" s="37"/>
+      <c r="B154" s="37">
+        <v>37784</v>
+      </c>
       <c r="C154" s="38"/>
       <c r="D154" s="39">
         <v>86.2</v>
@@ -50637,7 +50986,9 @@
       <c r="A155" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="B155" s="37"/>
+      <c r="B155" s="37">
+        <v>37818</v>
+      </c>
       <c r="C155" s="38"/>
       <c r="D155" s="39">
         <v>86.1</v>
@@ -50675,7 +51026,9 @@
       <c r="A156" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="B156" s="37"/>
+      <c r="B156" s="37">
+        <v>37853</v>
+      </c>
       <c r="C156" s="38"/>
       <c r="D156" s="39">
         <v>84.6</v>
@@ -50713,7 +51066,9 @@
       <c r="A157" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="B157" s="37"/>
+      <c r="B157" s="37">
+        <v>37882</v>
+      </c>
       <c r="C157" s="38"/>
       <c r="D157" s="39">
         <v>84.4</v>
@@ -50751,7 +51106,9 @@
       <c r="A158" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="B158" s="37"/>
+      <c r="B158" s="37">
+        <v>37924</v>
+      </c>
       <c r="C158" s="38"/>
       <c r="D158" s="39">
         <v>85.5</v>
@@ -50789,7 +51146,9 @@
       <c r="A159" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="B159" s="37"/>
+      <c r="B159" s="37">
+        <v>37985</v>
+      </c>
       <c r="C159" s="38"/>
       <c r="D159" s="39">
         <v>85.5</v>
@@ -50827,7 +51186,9 @@
       <c r="A160" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="B160" s="37"/>
+      <c r="B160" s="37">
+        <v>38048</v>
+      </c>
       <c r="C160" s="38"/>
       <c r="D160" s="39">
         <v>85.5</v>
@@ -50865,7 +51226,9 @@
       <c r="A161" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="B161" s="37"/>
+      <c r="B161" s="37">
+        <v>38077</v>
+      </c>
       <c r="C161" s="38"/>
       <c r="D161" s="39">
         <v>85.1</v>
@@ -50903,7 +51266,9 @@
       <c r="A162" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="B162" s="37"/>
+      <c r="B162" s="37">
+        <v>38107</v>
+      </c>
       <c r="C162" s="38"/>
       <c r="D162" s="39">
         <v>85.1</v>
@@ -50941,7 +51306,9 @@
       <c r="A163" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="B163" s="37"/>
+      <c r="B163" s="37">
+        <v>38140</v>
+      </c>
       <c r="C163" s="38"/>
       <c r="D163" s="39">
         <v>85.6</v>
@@ -50979,7 +51346,9 @@
       <c r="A164" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="B164" s="37"/>
+      <c r="B164" s="37">
+        <v>38171</v>
+      </c>
       <c r="C164" s="38"/>
       <c r="D164" s="39">
         <v>84.3</v>
@@ -51017,7 +51386,9 @@
       <c r="A165" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="B165" s="37"/>
+      <c r="B165" s="37">
+        <v>38215</v>
+      </c>
       <c r="C165" s="38"/>
       <c r="D165" s="39">
         <v>85.6</v>
@@ -51055,7 +51426,9 @@
       <c r="A166" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="B166" s="37"/>
+      <c r="B166" s="37">
+        <v>38244</v>
+      </c>
       <c r="C166" s="38"/>
       <c r="D166" s="39">
         <v>85.3</v>
@@ -51093,7 +51466,9 @@
       <c r="A167" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="B167" s="37"/>
+      <c r="B167" s="37">
+        <v>38303</v>
+      </c>
       <c r="C167" s="38"/>
       <c r="D167" s="39">
         <v>85.4</v>
@@ -51131,7 +51506,9 @@
       <c r="A168" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="B168" s="37"/>
+      <c r="B168" s="37">
+        <v>38351</v>
+      </c>
       <c r="C168" s="38"/>
       <c r="D168" s="39">
         <v>85.3</v>
@@ -51169,7 +51546,9 @@
       <c r="A169" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="B169" s="37"/>
+      <c r="B169" s="37">
+        <v>38386</v>
+      </c>
       <c r="C169" s="38"/>
       <c r="D169" s="39">
         <v>84.8</v>
@@ -51207,7 +51586,9 @@
       <c r="A170" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="B170" s="37"/>
+      <c r="B170" s="37">
+        <v>38416</v>
+      </c>
       <c r="C170" s="38"/>
       <c r="D170" s="39">
         <v>84.2</v>
@@ -51245,7 +51626,9 @@
       <c r="A171" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="B171" s="37"/>
+      <c r="B171" s="37">
+        <v>38535</v>
+      </c>
       <c r="C171" s="38"/>
       <c r="D171" s="39">
         <v>84.4</v>
@@ -51283,7 +51666,9 @@
       <c r="A172" s="37" t="s">
         <v>183</v>
       </c>
-      <c r="B172" s="37"/>
+      <c r="B172" s="37">
+        <v>38539</v>
+      </c>
       <c r="C172" s="38"/>
       <c r="D172" s="39">
         <v>84.6</v>
@@ -51321,7 +51706,9 @@
       <c r="A173" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="B173" s="37"/>
+      <c r="B173" s="37">
+        <v>38570</v>
+      </c>
       <c r="C173" s="38"/>
       <c r="D173" s="39">
         <v>84.4</v>
@@ -51359,7 +51746,9 @@
       <c r="A174" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="B174" s="37"/>
+      <c r="B174" s="37">
+        <v>38605</v>
+      </c>
       <c r="C174" s="38"/>
       <c r="D174" s="39">
         <v>84.7</v>
@@ -51397,7 +51786,9 @@
       <c r="A175" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="B175" s="37"/>
+      <c r="B175" s="37">
+        <v>38635</v>
+      </c>
       <c r="C175" s="38"/>
       <c r="D175" s="39">
         <v>84.4</v>
@@ -51435,7 +51826,9 @@
       <c r="A176" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="B176" s="37"/>
+      <c r="B176" s="37">
+        <v>38661</v>
+      </c>
       <c r="C176" s="38"/>
       <c r="D176" s="39">
         <v>84.1</v>
@@ -51473,7 +51866,9 @@
       <c r="A177" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="B177" s="37"/>
+      <c r="B177" s="37">
+        <v>38695</v>
+      </c>
       <c r="C177" s="38"/>
       <c r="D177" s="39">
         <v>84.3</v>
@@ -51511,7 +51906,9 @@
       <c r="A178" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="B178" s="37"/>
+      <c r="B178" s="37">
+        <v>38726</v>
+      </c>
       <c r="C178" s="38"/>
       <c r="D178" s="39">
         <v>84.4</v>
@@ -51548,7 +51945,9 @@
       <c r="A179" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="B179" s="37"/>
+      <c r="B179" s="37">
+        <v>38754</v>
+      </c>
       <c r="C179" s="38"/>
       <c r="D179" s="39">
         <v>84.2</v>
@@ -51585,7 +51984,9 @@
       <c r="A180" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="B180" s="37"/>
+      <c r="B180" s="37">
+        <v>38783</v>
+      </c>
       <c r="C180" s="38"/>
       <c r="D180" s="39"/>
       <c r="E180" s="40">
@@ -51620,7 +52021,9 @@
       <c r="A181" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="B181" s="37"/>
+      <c r="B181" s="37">
+        <v>38812</v>
+      </c>
       <c r="C181" s="38"/>
       <c r="D181" s="39">
         <v>83.8</v>
@@ -53063,11 +53466,22 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:M2"/>
-    <mergeCell ref="T108:U108"/>
-    <mergeCell ref="V108:W108"/>
+    <mergeCell ref="R119:Z123"/>
+    <mergeCell ref="AA119:AC123"/>
+    <mergeCell ref="R126:Z126"/>
+    <mergeCell ref="AA126:AC126"/>
+    <mergeCell ref="R124:Z124"/>
+    <mergeCell ref="AA124:AC124"/>
+    <mergeCell ref="R125:Z125"/>
+    <mergeCell ref="AA125:AC125"/>
+    <mergeCell ref="X113:Y113"/>
+    <mergeCell ref="Z113:AA113"/>
+    <mergeCell ref="R115:Z116"/>
+    <mergeCell ref="AA115:AC116"/>
+    <mergeCell ref="R118:Z118"/>
+    <mergeCell ref="AA118:AC118"/>
+    <mergeCell ref="R117:Z117"/>
+    <mergeCell ref="AA117:AC117"/>
     <mergeCell ref="X108:Y108"/>
     <mergeCell ref="Z108:AA108"/>
     <mergeCell ref="T109:U113"/>
@@ -53084,22 +53498,11 @@
     <mergeCell ref="X112:Y112"/>
     <mergeCell ref="Z112:AA112"/>
     <mergeCell ref="V113:W113"/>
-    <mergeCell ref="X113:Y113"/>
-    <mergeCell ref="Z113:AA113"/>
-    <mergeCell ref="R115:Z116"/>
-    <mergeCell ref="AA115:AC116"/>
-    <mergeCell ref="R118:Z118"/>
-    <mergeCell ref="AA118:AC118"/>
-    <mergeCell ref="R117:Z117"/>
-    <mergeCell ref="AA117:AC117"/>
-    <mergeCell ref="R119:Z123"/>
-    <mergeCell ref="AA119:AC123"/>
-    <mergeCell ref="R126:Z126"/>
-    <mergeCell ref="AA126:AC126"/>
-    <mergeCell ref="R124:Z124"/>
-    <mergeCell ref="AA124:AC124"/>
-    <mergeCell ref="R125:Z125"/>
-    <mergeCell ref="AA125:AC125"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:M2"/>
+    <mergeCell ref="T108:U108"/>
+    <mergeCell ref="V108:W108"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.25" top="0.19" bottom="0.18" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -53136,9 +53539,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75">
-      <c r="A1" s="124"/>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
+      <c r="A1" s="126"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
     </row>
     <row r="2" spans="1:8" ht="18.75">
       <c r="A2" s="123" t="s">
@@ -53767,22 +54170,22 @@
       <c r="C57" s="9">
         <v>71.400000000000006</v>
       </c>
-      <c r="E57" s="124"/>
-      <c r="F57" s="124"/>
-      <c r="G57" s="124"/>
-      <c r="H57" s="124"/>
-      <c r="I57" s="124"/>
-      <c r="J57" s="124"/>
-      <c r="K57" s="124"/>
-      <c r="L57" s="124"/>
-      <c r="M57" s="124"/>
-      <c r="N57" s="124"/>
-      <c r="O57" s="124"/>
-      <c r="P57" s="124"/>
-      <c r="Q57" s="124"/>
-      <c r="R57" s="124"/>
-      <c r="S57" s="124"/>
-      <c r="T57" s="124"/>
+      <c r="E57" s="126"/>
+      <c r="F57" s="126"/>
+      <c r="G57" s="126"/>
+      <c r="H57" s="126"/>
+      <c r="I57" s="126"/>
+      <c r="J57" s="126"/>
+      <c r="K57" s="126"/>
+      <c r="L57" s="126"/>
+      <c r="M57" s="126"/>
+      <c r="N57" s="126"/>
+      <c r="O57" s="126"/>
+      <c r="P57" s="126"/>
+      <c r="Q57" s="126"/>
+      <c r="R57" s="126"/>
+      <c r="S57" s="126"/>
+      <c r="T57" s="126"/>
     </row>
     <row r="58" spans="1:20" ht="18.75">
       <c r="A58" s="10" t="s">
@@ -56555,10 +56958,10 @@
       <c r="A254" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="B254" s="125" t="s">
+      <c r="B254" s="124" t="s">
         <v>481</v>
       </c>
-      <c r="C254" s="126"/>
+      <c r="C254" s="125"/>
     </row>
     <row r="255" spans="1:3" ht="15.75">
       <c r="A255" s="10" t="s">
@@ -58030,6 +58433,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="E57:T57"/>
+    <mergeCell ref="E58:T58"/>
     <mergeCell ref="A296:C296"/>
     <mergeCell ref="A328:C328"/>
     <mergeCell ref="A360:C360"/>
@@ -58040,12 +58449,6 @@
     <mergeCell ref="A200:C200"/>
     <mergeCell ref="A232:C232"/>
     <mergeCell ref="B254:C254"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="E57:T57"/>
-    <mergeCell ref="E58:T58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -58084,9 +58487,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75">
-      <c r="A1" s="124"/>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
+      <c r="A1" s="126"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
     </row>
     <row r="2" spans="1:8" ht="18.75">
       <c r="A2" s="123" t="s">
@@ -58719,22 +59122,22 @@
       <c r="C57" s="9">
         <v>72.900000000000006</v>
       </c>
-      <c r="E57" s="124"/>
-      <c r="F57" s="124"/>
-      <c r="G57" s="124"/>
-      <c r="H57" s="124"/>
-      <c r="I57" s="124"/>
-      <c r="J57" s="124"/>
-      <c r="K57" s="124"/>
-      <c r="L57" s="124"/>
-      <c r="M57" s="124"/>
-      <c r="N57" s="124"/>
-      <c r="O57" s="124"/>
-      <c r="P57" s="124"/>
-      <c r="Q57" s="124"/>
-      <c r="R57" s="124"/>
-      <c r="S57" s="124"/>
-      <c r="T57" s="124"/>
+      <c r="E57" s="126"/>
+      <c r="F57" s="126"/>
+      <c r="G57" s="126"/>
+      <c r="H57" s="126"/>
+      <c r="I57" s="126"/>
+      <c r="J57" s="126"/>
+      <c r="K57" s="126"/>
+      <c r="L57" s="126"/>
+      <c r="M57" s="126"/>
+      <c r="N57" s="126"/>
+      <c r="O57" s="126"/>
+      <c r="P57" s="126"/>
+      <c r="Q57" s="126"/>
+      <c r="R57" s="126"/>
+      <c r="S57" s="126"/>
+      <c r="T57" s="126"/>
     </row>
     <row r="58" spans="1:20" ht="18.75">
       <c r="A58" s="18" t="s">
@@ -62067,6 +62470,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="E57:T57"/>
+    <mergeCell ref="E58:T58"/>
     <mergeCell ref="A296:C296"/>
     <mergeCell ref="A328:C328"/>
     <mergeCell ref="A360:C360"/>
@@ -62076,12 +62485,6 @@
     <mergeCell ref="A200:C200"/>
     <mergeCell ref="A232:C232"/>
     <mergeCell ref="A264:C264"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="E57:T57"/>
-    <mergeCell ref="E58:T58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
